--- a/vtiger-com-fw-a12/src/main/resources/testScriptData.xlsx
+++ b/vtiger-com-fw-a12/src/main/resources/testScriptData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Virtual_Gamer\git\vtiger-a12\vtiger-com-fw-a12\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F5DE17-D3A8-45E9-B14A-657ACC40473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D65F1EB-49A6-4FFC-9441-2DCE43C5F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A12" sheetId="1" r:id="rId1"/>
     <sheet name="Org" sheetId="2" r:id="rId2"/>
-    <sheet name="Website" sheetId="3" r:id="rId3"/>
+    <sheet name="Employees" sheetId="3" r:id="rId3"/>
     <sheet name="PhoneNo" sheetId="4" r:id="rId4"/>
     <sheet name="EmailAddress" sheetId="5" r:id="rId5"/>
     <sheet name="WebsiteName" sheetId="6" r:id="rId6"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Names</t>
   </si>
@@ -132,15 +132,6 @@
     <t>TCS_</t>
   </si>
   <si>
-    <t>Website name</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/</t>
-  </si>
-  <si>
     <t>PhoneNo</t>
   </si>
   <si>
@@ -181,6 +172,9 @@
   </si>
   <si>
     <t>RevenueAmount</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
@@ -285,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,6 +306,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0C215A-9996-40FF-B330-02FCA596C387}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -806,23 +805,20 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>34</v>
+      <c r="A2" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>35</v>
+      <c r="A3" s="7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BCB3FD42-7F70-4D9E-9A04-6CB62197A4F5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -842,7 +838,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -891,27 +887,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -941,37 +937,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B365BE4-CBA1-4C9A-894C-7E5A64FA00DC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
@@ -995,7 +991,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
